--- a/biology/Écologie/Julia_Marton-Lefèvre/Julia_Marton-Lefèvre.xlsx
+++ b/biology/Écologie/Julia_Marton-Lefèvre/Julia_Marton-Lefèvre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Julia_Marton-Lef%C3%A8vre</t>
+          <t>Julia_Marton-Lefèvre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julia Marton-Lefèvre (né en 1946 à Budapest) est une écologue franco-américaine. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Julia_Marton-Lef%C3%A8vre</t>
+          <t>Julia_Marton-Lefèvre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Julia Marton-Lefèvre commence sa carrière en tant que professeur d'université pour l'association Corps de la paix[Quoi ?], entre 1970 et 1974. 
 Après avoir travaillé quatre ans pour l'UNESCO, elle est directrice exécutive du Conseil international pour la science de 1978 à 1997.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Julia_Marton-Lef%C3%A8vre</t>
+          <t>Julia_Marton-Lefèvre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1999 : Prix de la coopération scientifique internationale (en) de l'Association américaine pour l'avancement des sciences[1]
-2012 : ProNatura Award décerné par le gouvernement hongrois[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1999 : Prix de la coopération scientifique internationale (en) de l'Association américaine pour l'avancement des sciences
+2012 : ProNatura Award décerné par le gouvernement hongrois
 2019 : Lifetime achievement Award de la National Council for Science and the Environment (en)</t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Julia_Marton-Lef%C3%A8vre</t>
+          <t>Julia_Marton-Lefèvre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,13 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur Elle est faite chevalier le 30 janvier 2008[3].
- Officier de l'ordre national du Mérite Elle est directement faite officier le 15 novembre 2018[4].
- Officier de l'ordre de Saint-Charles. Elle est faite chevalier le 17 novembre 2010, puis est promue officier le 17 novembre 2019[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur Elle est faite chevalier le 30 janvier 2008.
+ Officier de l'ordre national du Mérite Elle est directement faite officier le 15 novembre 2018.
+ Officier de l'ordre de Saint-Charles. Elle est faite chevalier le 17 novembre 2010, puis est promue officier le 17 novembre 2019.</t>
         </is>
       </c>
     </row>
